--- a/data/ISIMIP-local-lake-locations.xlsx
+++ b/data/ISIMIP-local-lake-locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6615EAD-7827-AE4C-A7C9-887F4ACA89C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7027E2D-93D8-0F47-A65A-2338FD5630C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="20600" windowHeight="19220" xr2:uid="{E54D8D33-6105-4F4F-B78C-162AC234471A}"/>
   </bookViews>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549216A9-AFA9-8843-8377-3358E44AAFF3}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,151 +921,151 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B2">
-        <v>-1.73</v>
+        <v>60.37</v>
       </c>
       <c r="C2">
-        <v>29.24</v>
+        <v>9.73</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I2">
-        <v>483</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
         <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>55.59</v>
+        <v>46.01</v>
       </c>
       <c r="C3">
-        <v>35.82</v>
+        <v>-89.61</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B4">
-        <v>32.49</v>
+        <v>37.31</v>
       </c>
       <c r="C4">
-        <v>35.35</v>
+        <v>-79.84</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B5">
-        <v>-3.3</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="C5">
-        <v>149.07</v>
+        <v>-105.84</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
         <v>72</v>
@@ -1073,417 +1073,417 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>-16.309999999999999</v>
+        <v>57.93</v>
       </c>
       <c r="C6">
-        <v>128.68</v>
+        <v>27.34</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I6">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>-35.119999999999997</v>
+        <v>58.31</v>
       </c>
       <c r="C7">
-        <v>138.71</v>
+        <v>26.01</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I7">
-        <v>44.5</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <v>60.37</v>
-      </c>
-      <c r="C8">
-        <v>9.73</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1">
+        <v>60.47</v>
+      </c>
+      <c r="C8" s="1">
+        <v>23.51</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9">
-        <v>41.97</v>
-      </c>
-      <c r="C9">
-        <v>2.4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1">
+        <v>52.43</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13.65</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9">
-        <v>59</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s">
-        <v>71</v>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10">
-        <v>46.01</v>
-      </c>
-      <c r="C10">
-        <v>-89.61</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43.05</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-89.43</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11">
-        <v>37.31</v>
-      </c>
-      <c r="C11">
-        <v>-79.84</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46.04</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-89.62</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12">
-        <v>40.619999999999997</v>
-      </c>
-      <c r="C12">
-        <v>-105.84</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46.04</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-89.69</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B13">
-        <v>27.21</v>
+        <v>55.59</v>
       </c>
       <c r="C13">
-        <v>-81.349999999999994</v>
+        <v>35.82</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="B14">
-        <v>39.090000000000003</v>
+        <v>-3.3</v>
       </c>
       <c r="C14">
-        <v>-120.03</v>
+        <v>149.07</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I14">
-        <v>502</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B15">
-        <v>-38.08</v>
+        <v>27.21</v>
       </c>
       <c r="C15">
-        <v>176.28</v>
+        <v>-81.349999999999994</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I15">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
       </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="B16">
-        <v>-38.21</v>
+        <v>62.1</v>
       </c>
       <c r="C16">
-        <v>176.43</v>
+        <v>33.1</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I16">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
         <v>71</v>
@@ -1491,963 +1491,963 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B17">
-        <v>45.76</v>
+        <v>57.94</v>
       </c>
       <c r="C17">
-        <v>5.86</v>
+        <v>27.35</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17">
-        <v>145</v>
-      </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B18">
-        <v>45.87</v>
+        <v>59.84</v>
       </c>
       <c r="C18">
-        <v>6.17</v>
+        <v>18.63</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1">
+        <v>54.37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-2.99</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="1">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44.53</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-69.89</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19">
-        <v>46.45</v>
-      </c>
-      <c r="C19">
-        <v>6.59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="1">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45.15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-79.09</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="1">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42.61</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-88.6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="1">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-89.41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="1">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19">
-        <v>309</v>
-      </c>
-      <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20">
-        <v>46.54</v>
-      </c>
-      <c r="C20">
-        <v>6.52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20">
-        <v>154</v>
-      </c>
-      <c r="J20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21">
-        <v>47.08</v>
-      </c>
-      <c r="C21">
-        <v>7.16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21">
-        <v>74</v>
-      </c>
-      <c r="J21" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22">
-        <v>47.28</v>
-      </c>
-      <c r="C22">
-        <v>8.58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22">
-        <v>136</v>
-      </c>
-      <c r="J22" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23">
-        <v>48.85</v>
-      </c>
-      <c r="C23">
-        <v>14.49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23">
-        <v>44</v>
-      </c>
-      <c r="J23" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" t="s">
-        <v>71</v>
+      <c r="J23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24">
-        <v>51.74</v>
-      </c>
-      <c r="C24">
-        <v>10.89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24">
-        <v>85</v>
-      </c>
-      <c r="J24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" t="s">
-        <v>71</v>
+      <c r="A24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45.77</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-89.53</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="1">
+        <v>19</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25">
-        <v>62.1</v>
-      </c>
-      <c r="C25">
-        <v>33.1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="1">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-89.61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="1">
+        <v>22</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" t="s">
-        <v>71</v>
+      <c r="K25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26">
-        <v>53.17</v>
-      </c>
-      <c r="C26">
-        <v>13.03</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26">
-        <v>70</v>
-      </c>
-      <c r="J26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" t="s">
-        <v>71</v>
+      <c r="A26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="1">
+        <v>46.02</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-89.61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="1">
+        <v>21</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27">
-        <v>53.9</v>
-      </c>
-      <c r="C27">
-        <v>-9.5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27">
-        <v>46</v>
-      </c>
-      <c r="J27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" t="s">
-        <v>71</v>
+      <c r="A27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43.29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-89.65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="1">
+        <v>19</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28">
-        <v>54.31</v>
-      </c>
-      <c r="C28">
-        <v>-2.95</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s">
-        <v>145</v>
-      </c>
-      <c r="I28">
-        <v>42</v>
-      </c>
-      <c r="J28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" t="s">
-        <v>71</v>
+      <c r="A28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="1">
+        <v>46.01</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-89.7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="1">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B29">
-        <v>57.94</v>
+        <v>32.49</v>
       </c>
       <c r="C29">
-        <v>27.35</v>
+        <v>35.35</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I29">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s">
         <v>71</v>
       </c>
       <c r="L29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B30">
-        <v>57.93</v>
+        <v>-16.309999999999999</v>
       </c>
       <c r="C30">
-        <v>27.34</v>
+        <v>128.68</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30">
         <v>44</v>
       </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30">
-        <v>8</v>
-      </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B31">
-        <v>58.31</v>
+        <v>-35.119999999999997</v>
       </c>
       <c r="C31">
-        <v>26.01</v>
+        <v>138.71</v>
       </c>
       <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31">
+        <v>44.5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32">
+        <v>48.85</v>
+      </c>
+      <c r="C32">
+        <v>14.49</v>
+      </c>
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32">
         <v>44</v>
       </c>
-      <c r="F31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31">
-        <v>6</v>
-      </c>
-      <c r="J31" t="s">
-        <v>81</v>
-      </c>
-      <c r="K31" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="1">
-        <v>60.47</v>
-      </c>
-      <c r="C32" s="1">
-        <v>23.51</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>72</v>
+      <c r="J32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33">
-        <v>59.75</v>
+        <v>53.9</v>
       </c>
       <c r="C33">
-        <v>17.62</v>
+        <v>-9.5</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
         <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I33">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
         <v>78</v>
       </c>
       <c r="K33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B34">
-        <v>59.84</v>
+        <v>54.31</v>
       </c>
       <c r="C34">
-        <v>18.63</v>
+        <v>-2.95</v>
       </c>
       <c r="D34" t="s">
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
         <v>75</v>
       </c>
       <c r="H34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34">
+        <v>42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>59.75</v>
+      </c>
+      <c r="C35">
+        <v>17.62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
         <v>144</v>
       </c>
-      <c r="I34">
-        <v>21</v>
-      </c>
-      <c r="J34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" t="s">
-        <v>72</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="1">
-        <v>52.43</v>
-      </c>
-      <c r="C35" s="1">
-        <v>13.65</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I35" s="1">
-        <v>8</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="I35">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" t="s">
         <v>72</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B36">
-        <v>61.07</v>
+        <v>69.03</v>
       </c>
       <c r="C36">
-        <v>25.13</v>
+        <v>20.77</v>
       </c>
       <c r="D36" t="s">
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
         <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="1">
-        <v>54.37</v>
-      </c>
-      <c r="C37" s="1">
-        <v>-2.99</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I37" s="1">
-        <v>16</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37">
+        <v>43.13</v>
+      </c>
+      <c r="C37">
+        <v>-88.43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37">
+        <v>28</v>
+      </c>
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" t="s">
         <v>72</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B38">
-        <v>69.03</v>
+        <v>43.23</v>
       </c>
       <c r="C38">
-        <v>20.77</v>
+        <v>-72.5</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I38">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J38" t="s">
         <v>78</v>
       </c>
       <c r="K38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="1">
-        <v>44.53</v>
-      </c>
-      <c r="C39" s="1">
-        <v>-69.89</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39">
+        <v>44.68</v>
+      </c>
+      <c r="C39">
+        <v>-76.7</v>
+      </c>
+      <c r="D39" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39">
+        <v>35</v>
+      </c>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40">
+        <v>45.38</v>
+      </c>
+      <c r="C40">
+        <v>-79.13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41">
+        <v>46.03</v>
+      </c>
+      <c r="C41">
+        <v>-89.67</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I39" s="1">
-        <v>21</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45.15</v>
-      </c>
-      <c r="C40" s="1">
-        <v>-79.09</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" s="1">
-        <v>12</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="1">
-        <v>42.61</v>
-      </c>
-      <c r="C41" s="1">
-        <v>-88.6</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="1">
-        <v>17</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41" s="1" t="s">
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" t="s">
         <v>72</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B42">
-        <v>43.13</v>
+        <v>46.16</v>
       </c>
       <c r="C42">
-        <v>-88.43</v>
+        <v>-89.32</v>
       </c>
       <c r="D42" t="s">
         <v>65</v>
@@ -2465,7 +2465,7 @@
         <v>145</v>
       </c>
       <c r="I42">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J42" t="s">
         <v>78</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43">
-        <v>43.23</v>
+        <v>47.59</v>
       </c>
       <c r="C43">
-        <v>-72.5</v>
+        <v>-122.1</v>
       </c>
       <c r="D43" t="s">
         <v>65</v>
@@ -2494,425 +2494,420 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
         <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I43">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J43" t="s">
         <v>78</v>
       </c>
       <c r="K43" t="s">
-        <v>72</v>
-      </c>
-      <c r="L43" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43.1</v>
-      </c>
-      <c r="C44" s="1">
-        <v>-89.41</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44">
+        <v>68.63</v>
+      </c>
+      <c r="C44">
+        <v>-149.6</v>
+      </c>
+      <c r="D44" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I44" s="1">
-        <v>25</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>143</v>
+      </c>
+      <c r="I44">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B45">
-        <v>43.81</v>
+        <v>-1.73</v>
       </c>
       <c r="C45">
-        <v>-89</v>
+        <v>29.24</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I45">
-        <v>73</v>
+        <v>483</v>
       </c>
       <c r="J45" t="s">
         <v>80</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
-      </c>
-      <c r="L45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="1">
-        <v>43.05</v>
-      </c>
-      <c r="C46" s="1">
-        <v>-89.43</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I46" s="1">
-        <v>4</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>72</v>
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46">
+        <v>41.97</v>
+      </c>
+      <c r="C46">
+        <v>2.4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46">
+        <v>59</v>
+      </c>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B47">
-        <v>44.68</v>
+        <v>39.090000000000003</v>
       </c>
       <c r="C47">
-        <v>-76.7</v>
+        <v>-120.03</v>
       </c>
       <c r="D47" t="s">
         <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
         <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I47">
-        <v>35</v>
+        <v>502</v>
       </c>
       <c r="J47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
-      </c>
-      <c r="L47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L47" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="1">
-        <v>45.77</v>
-      </c>
-      <c r="C48" s="1">
-        <v>-89.53</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" s="1">
-        <v>19</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>72</v>
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48">
+        <v>-38.08</v>
+      </c>
+      <c r="C48">
+        <v>176.28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48">
+        <v>53</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K48" t="s">
+        <v>71</v>
+      </c>
+      <c r="L48" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B49">
-        <v>45.38</v>
+        <v>-38.21</v>
       </c>
       <c r="C49">
-        <v>-79.13</v>
+        <v>176.43</v>
       </c>
       <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49">
+        <v>87</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K49" t="s">
+        <v>71</v>
+      </c>
+      <c r="L49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50">
+        <v>45.76</v>
+      </c>
+      <c r="C50">
+        <v>5.86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50">
+        <v>145</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51">
+        <v>45.87</v>
+      </c>
+      <c r="C51">
+        <v>6.17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51">
         <v>65</v>
       </c>
-      <c r="E49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" t="s">
-        <v>145</v>
-      </c>
-      <c r="I49">
-        <v>37</v>
-      </c>
-      <c r="J49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K49" t="s">
-        <v>72</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="1">
-        <v>46</v>
-      </c>
-      <c r="C50" s="1">
-        <v>-89.61</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" s="1">
-        <v>22</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="1">
-        <v>46.02</v>
-      </c>
-      <c r="C51" s="1">
-        <v>-89.61</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I51" s="1">
-        <v>21</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>72</v>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="1">
-        <v>46.04</v>
-      </c>
-      <c r="C52" s="1">
-        <v>-89.62</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I52" s="1">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52">
+        <v>46.45</v>
+      </c>
+      <c r="C52">
+        <v>6.59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" t="s">
         <v>7</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>72</v>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52">
+        <v>309</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="1">
-        <v>43.29</v>
-      </c>
-      <c r="C53" s="1">
-        <v>-89.65</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I53" s="1">
-        <v>19</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>72</v>
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53">
+        <v>46.54</v>
+      </c>
+      <c r="C53">
+        <v>6.52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53">
+        <v>154</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L53" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B54">
-        <v>46.03</v>
+        <v>47.08</v>
       </c>
       <c r="C54">
-        <v>-89.67</v>
+        <v>7.16</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
         <v>74</v>
@@ -2921,176 +2916,179 @@
         <v>145</v>
       </c>
       <c r="I54">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s">
         <v>72</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="1">
-        <v>46.04</v>
-      </c>
-      <c r="C55" s="1">
-        <v>-89.69</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I55" s="1">
-        <v>8</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>72</v>
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55">
+        <v>47.28</v>
+      </c>
+      <c r="C55">
+        <v>8.58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55">
+        <v>136</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+      <c r="K55" t="s">
+        <v>72</v>
+      </c>
+      <c r="L55" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="1">
-        <v>46.01</v>
-      </c>
-      <c r="C56" s="1">
-        <v>-89.7</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I56" s="1">
-        <v>19</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>72</v>
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56">
+        <v>51.74</v>
+      </c>
+      <c r="C56">
+        <v>10.89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56">
+        <v>85</v>
+      </c>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" t="s">
+        <v>72</v>
+      </c>
+      <c r="L56" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B57">
-        <v>46.16</v>
+        <v>53.17</v>
       </c>
       <c r="C57">
-        <v>-89.32</v>
+        <v>13.03</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
         <v>145</v>
       </c>
       <c r="I57">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="J57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s">
         <v>72</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B58">
-        <v>47.59</v>
+        <v>61.07</v>
       </c>
       <c r="C58">
-        <v>-122.1</v>
+        <v>25.13</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I58">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s">
+        <v>72</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B59">
-        <v>47.64</v>
+        <v>43.81</v>
       </c>
       <c r="C59">
-        <v>-122.27</v>
+        <v>-89</v>
       </c>
       <c r="D59" t="s">
         <v>65</v>
@@ -3099,33 +3097,36 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G59" t="s">
         <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I59">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J59" t="s">
         <v>80</v>
       </c>
       <c r="K59" t="s">
+        <v>72</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B60">
-        <v>68.63</v>
+        <v>47.64</v>
       </c>
       <c r="C60">
-        <v>-149.6</v>
+        <v>-122.27</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>
@@ -3134,19 +3135,19 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I60">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s">
         <v>71</v>
@@ -3156,8 +3157,8 @@
       <c r="A61" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:K67">
-    <sortCondition descending="1" ref="C1:C67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L61">
+    <sortCondition ref="J1:J61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
